--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,15 +468,21 @@
           <t>Reward Points</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Height</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Harvinder Singh</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" s="2" t="n">
-        <v>45387</v>
+        <v>45670</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -493,17 +496,15 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" s="2" t="n">
-        <v>45387</v>
+        <v>45670</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -517,17 +518,15 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Harvei</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
       <c r="B4" s="2" t="n">
-        <v>45387</v>
+        <v>45670</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -541,17 +540,15 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Harv</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" s="2" t="n">
-        <v>45387</v>
+        <v>45670</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -565,23 +562,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Harvinder</t>
+          <t>jagan</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>36448</v>
+        <v>45670</v>
       </c>
       <c r="C6" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -589,155 +588,469 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>648</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Haf</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>45388</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>735</v>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" s="2" t="n">
-        <v>45388</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" s="2" t="n">
-        <v>45388</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>68</v>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" s="2" t="n">
-        <v>45388</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>56</v>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" s="2" t="n">
-        <v>45388</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>37</v>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ha</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>45388</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>24</v>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
-      <c r="B13" s="3" t="n">
-        <v>45388</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>100</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>100</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>100</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>100</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Raju Gorapalli</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>100</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Raju Gorapalli</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>49.97</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Raju Gorapalli</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>49.97</v>
+      </c>
+      <c r="H19" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Raju Gorapalli</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>49.97</v>
+      </c>
+      <c r="H20" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Raju Gorapalli</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>49.97</v>
+      </c>
+      <c r="H21" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Raju Gorapalli</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>49.97</v>
+      </c>
+      <c r="H22" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Raju Gorapalli</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>49.97</v>
+      </c>
+      <c r="H23" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
